--- a/excel_con_division_de_columna.xlsx
+++ b/excel_con_division_de_columna.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,6 +958,12 @@
       </c>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MASR</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
           <t>MAST</t>
@@ -1000,8 +1006,12 @@
         </is>
       </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="4" t="n"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>MANR</t>
+        </is>
+      </c>
+      <c r="AM3" s="4" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>COME</t>
@@ -1038,8 +1048,12 @@
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" s="4" t="n"/>
-      <c r="BA3" s="4" t="n"/>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>TANR</t>
+        </is>
+      </c>
+      <c r="BA3" s="4" t="inlineStr"/>
       <c r="BB3" t="inlineStr">
         <is>
           <t>COME</t>
@@ -1838,8 +1852,12 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>MASR</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>COME</t>
@@ -1876,8 +1894,12 @@
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>MAST</t>
+        </is>
+      </c>
+      <c r="Y7" s="4" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>COME</t>
@@ -1960,8 +1982,12 @@
           <t>NANT</t>
         </is>
       </c>
-      <c r="AZ7" s="4" t="n"/>
-      <c r="BA7" s="4" t="n"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>MANR</t>
+        </is>
+      </c>
+      <c r="BA7" s="4" t="inlineStr"/>
       <c r="BB7" t="inlineStr">
         <is>
           <t>TANT</t>
@@ -2294,7 +2320,7 @@
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -2342,6 +2368,12 @@
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>TASR</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -2380,8 +2412,12 @@
           <t>SLN3</t>
         </is>
       </c>
-      <c r="AL9" s="4" t="n"/>
-      <c r="AM9" s="4" t="n"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MASR</t>
+        </is>
+      </c>
+      <c r="AM9" s="4" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>MANR</t>
@@ -2414,7 +2450,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr"/>
@@ -2444,7 +2480,7 @@
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr"/>
@@ -2555,8 +2591,12 @@
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>TANT</t>
+        </is>
+      </c>
+      <c r="Y10" s="4" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
           <t>NANR</t>
@@ -2605,8 +2645,12 @@
         </is>
       </c>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" s="4" t="n"/>
-      <c r="AM10" s="4" t="n"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MAST</t>
+        </is>
+      </c>
+      <c r="AM10" s="4" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -2655,8 +2699,12 @@
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" s="4" t="n"/>
-      <c r="BA10" s="4" t="n"/>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>TASR</t>
+        </is>
+      </c>
+      <c r="BA10" s="4" t="inlineStr"/>
       <c r="BB10" t="inlineStr">
         <is>
           <t>MAST</t>
@@ -2746,7 +2794,7 @@
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -2826,8 +2874,12 @@
         </is>
       </c>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" s="4" t="n"/>
-      <c r="AM11" s="4" t="n"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>TANR</t>
+        </is>
+      </c>
+      <c r="AM11" s="4" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
           <t>TANT</t>
@@ -2876,8 +2928,12 @@
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" s="4" t="n"/>
-      <c r="BA11" s="4" t="n"/>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>TANT</t>
+        </is>
+      </c>
+      <c r="BA11" s="4" t="inlineStr"/>
       <c r="BB11" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -2963,8 +3019,12 @@
           <t>SLN3</t>
         </is>
       </c>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TANT</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -2995,7 +3055,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
@@ -3005,8 +3065,12 @@
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>MASR</t>
+        </is>
+      </c>
+      <c r="Y12" s="4" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>TAST</t>
@@ -3059,8 +3123,12 @@
         </is>
       </c>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" s="4" t="n"/>
-      <c r="AM12" s="4" t="n"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>TASR</t>
+        </is>
+      </c>
+      <c r="AM12" s="4" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -3095,7 +3163,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr"/>
@@ -3137,7 +3205,7 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr"/>
@@ -3218,8 +3286,18 @@
           <t>NANT</t>
         </is>
       </c>
-      <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>TANR</t>
+        </is>
+      </c>
+      <c r="Y13" s="4" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>MANR</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
           <t>BLPT</t>
@@ -3383,8 +3461,12 @@
           <t>TANR</t>
         </is>
       </c>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>MAST</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>TANT</t>
@@ -3429,8 +3511,12 @@
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" s="4" t="n"/>
-      <c r="Y14" s="4" t="n"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>MANR</t>
+        </is>
+      </c>
+      <c r="Y14" s="4" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>NANT</t>
@@ -3515,7 +3601,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr"/>
@@ -3668,6 +3754,12 @@
           <t>SLN3</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>TANR</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
           <t>MANR</t>
@@ -3887,6 +3979,12 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" s="4" t="n"/>
       <c r="Y16" s="4" t="n"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>TANT</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
           <t>BANT</t>
@@ -3975,8 +4073,12 @@
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" s="4" t="n"/>
-      <c r="BA16" s="4" t="n"/>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>MASR</t>
+        </is>
+      </c>
+      <c r="BA16" s="4" t="inlineStr"/>
       <c r="BB16" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -4054,8 +4156,12 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TASR</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>MASR</t>
@@ -4110,6 +4216,12 @@
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>MAST</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
           <t>TANT</t>
@@ -4172,7 +4284,7 @@
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr"/>
@@ -4208,7 +4320,7 @@
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr"/>
@@ -4277,8 +4389,12 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>MANR</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -4327,8 +4443,12 @@
           <t>NANR</t>
         </is>
       </c>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>TASR</t>
+        </is>
+      </c>
+      <c r="Y18" s="4" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
           <t>MASR</t>
@@ -4367,8 +4487,12 @@
         </is>
       </c>
       <c r="AK18" t="inlineStr"/>
-      <c r="AL18" s="4" t="n"/>
-      <c r="AM18" s="4" t="n"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>TANT</t>
+        </is>
+      </c>
+      <c r="AM18" s="4" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
           <t>MAST</t>
@@ -4387,13 +4511,13 @@
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr"/>
@@ -4413,8 +4537,12 @@
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" s="4" t="n"/>
-      <c r="BA18" s="4" t="n"/>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>MAST</t>
+        </is>
+      </c>
+      <c r="BA18" s="4" t="inlineStr"/>
       <c r="BB18" t="inlineStr">
         <is>
           <t>TLPR</t>
@@ -4488,8 +4616,12 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="4" t="n"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TANR</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>TAST</t>
@@ -4520,7 +4652,7 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>MANR</t>
+          <t>TANR</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
@@ -4670,7 +4802,7 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>TANR</t>
+          <t>MANR</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr"/>
@@ -4769,6 +4901,12 @@
         </is>
       </c>
       <c r="Y20" s="4" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
           <t>TLPT</t>
@@ -4803,8 +4941,12 @@
         </is>
       </c>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" s="4" t="n"/>
-      <c r="AM20" s="4" t="n"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>TLPT</t>
+        </is>
+      </c>
+      <c r="AM20" s="4" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
           <t>BLPT</t>
@@ -5032,8 +5174,12 @@
         </is>
       </c>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" s="4" t="n"/>
-      <c r="AM21" s="4" t="n"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="AM21" s="4" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -5078,8 +5224,12 @@
           <t>NLPT</t>
         </is>
       </c>
-      <c r="AZ21" s="4" t="n"/>
-      <c r="BA21" s="4" t="n"/>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="BA21" s="4" t="inlineStr"/>
       <c r="BB21" t="inlineStr">
         <is>
           <t>BLPT</t>
@@ -5370,8 +5520,12 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TLPR</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>BLPT</t>
@@ -5412,8 +5566,18 @@
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="Y23" s="4" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>TLPT</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -5647,8 +5811,18 @@
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>TLPT</t>
+        </is>
+      </c>
+      <c r="Y24" s="4" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>TLPR</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -5804,8 +5978,12 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="4" t="n"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>MLPR</t>
@@ -5854,8 +6032,12 @@
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" s="4" t="n"/>
-      <c r="Y25" s="4" t="n"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>TLPR</t>
+        </is>
+      </c>
+      <c r="Y25" s="4" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
           <t>BLPT</t>
@@ -5994,6 +6176,50 @@
           <t>NLPR</t>
         </is>
       </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
+      <c r="X26" s="4" t="n"/>
+      <c r="Y26" s="4" t="n"/>
+      <c r="AL26" s="4" t="n"/>
+      <c r="AM26" s="4" t="n"/>
+      <c r="AZ26" s="4" t="n"/>
+      <c r="BA26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
+      <c r="X27" s="4" t="n"/>
+      <c r="Y27" s="4" t="n"/>
+      <c r="AL27" s="4" t="n"/>
+      <c r="AM27" s="4" t="n"/>
+      <c r="AZ27" s="4" t="n"/>
+      <c r="BA27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
+      <c r="X28" s="4" t="n"/>
+      <c r="Y28" s="4" t="n"/>
+      <c r="AL28" s="4" t="n"/>
+      <c r="AM28" s="4" t="n"/>
+      <c r="AZ28" s="4" t="n"/>
+      <c r="BA28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
+      <c r="X29" s="4" t="n"/>
+      <c r="Y29" s="4" t="n"/>
+      <c r="AL29" s="4" t="n"/>
+      <c r="AM29" s="4" t="n"/>
+      <c r="AZ29" s="4" t="n"/>
+      <c r="BA29" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/excel_con_division_de_columna.xlsx
+++ b/excel_con_division_de_columna.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM29"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5861,14 +5861,10 @@
       <c r="AM24" s="4" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>MLPR</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>NLPR</t>
-        </is>
-      </c>
+          <t>DESC</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>DESC</t>
@@ -6090,10 +6086,14 @@
       <c r="AM25" s="4" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>DESC</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr"/>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>NLPR</t>
+        </is>
+      </c>
       <c r="AP25" t="inlineStr">
         <is>
           <t>BLPT</t>
@@ -6176,50 +6176,6 @@
           <t>NLPR</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="4" t="n"/>
-      <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n"/>
-      <c r="AL26" s="4" t="n"/>
-      <c r="AM26" s="4" t="n"/>
-      <c r="AZ26" s="4" t="n"/>
-      <c r="BA26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="J27" s="4" t="n"/>
-      <c r="K27" s="4" t="n"/>
-      <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
-      <c r="AL27" s="4" t="n"/>
-      <c r="AM27" s="4" t="n"/>
-      <c r="AZ27" s="4" t="n"/>
-      <c r="BA27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="4" t="n"/>
-      <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
-      <c r="AL28" s="4" t="n"/>
-      <c r="AM28" s="4" t="n"/>
-      <c r="AZ28" s="4" t="n"/>
-      <c r="BA28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="4" t="n"/>
-      <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="4" t="n"/>
-      <c r="AL29" s="4" t="n"/>
-      <c r="AM29" s="4" t="n"/>
-      <c r="AZ29" s="4" t="n"/>
-      <c r="BA29" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
